--- a/results/correct models/R13-course-enrollment/compositions_contradiction_check.xlsx
+++ b/results/correct models/R13-course-enrollment/compositions_contradiction_check.xlsx
@@ -1,37 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\semantic-alignment-detection\results\correct models\R13-course-enrollment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D92B1C4-CE1E-4CB8-83FE-C07BF2A3642F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>actual_description</t>
+  </si>
+  <si>
+    <t>generated_description</t>
+  </si>
+  <si>
+    <t>At the end of the semester, the student can access the system to view an electronic report card.</t>
+  </si>
+  <si>
+    <t>Each electronic report card is made up of grades</t>
+  </si>
+  <si>
+    <t>At the beginning of each semester, students may request a course catalog containing a list of course offerings.</t>
+  </si>
+  <si>
+    <t>Each course catalog is made up of courses</t>
+  </si>
+  <si>
+    <t>llm response</t>
+  </si>
+  <si>
+    <t>Statement 2 mentions that a student can access the system to view an electronic report card at the end of the semester, however, it does not provide any specific details about what this electronic report card is made up of. Even though Statement 1 clearly states that each electronic report card is made up of grades, taking Statement 2 alone does not offer any details about the composition of an electronic report card. Therefore, solely based on Statement 2, we are unable to confidently determine whether grade is a part of an electronic report card and if an electronic report card is composed of a grade.
+Conclusion: Not Sure.</t>
+  </si>
+  <si>
+    <t>Statement 2 suggests that a course catalog contains a list of course offerings, implying that it is indeed composed of courses. This is an indication that courses are part of the course catalog. However, the statement does not explicitly state that the course catalog is composed of course.
+This assertion is further supported by statement 1 which explicitly says each course catalog is made up of courses.
+Conclusion: Yes</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +87,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,223 +414,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="42.453125" customWidth="1"/>
+    <col min="3" max="3" width="85" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>actual_description</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>generated_description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Do these statements contradict each other? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Are these statements mutually exclusive? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Do these statements clash or conflict with each other? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Are these statements at odds with each other? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Do these statements negate each other? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Are these statements inconsistent? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Do these statements oppose each other? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Are these statements in disagreement? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Are these statements incompatible? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Do these statements present conflicting viewpoints? 
- Statement1:{statement1} 
- Statement2:{statement2}</t>
-        </is>
-      </c>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>At the end of the semester, the student can access the system to view an electronic report card.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Each electronic report card is made up of grades</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>No, these statements do not contradict each other. They are providing information about different aspects of the same subject - electronic report cards. The first tells us about the composition of the report card (grades), while the second tells us about when and how it can be accessed (at the end of the semester, through a system).</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>No, these statements are not mutually exclusive. They can both occur at the same time. In fact, they are related to each other, as viewing an electronic report card (Statement 2) would likely involve seeing grades (Statement 1).</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>No, these statements do not clash or conflict with each other. They both pertain to an electronic report card, with one specifying what it is made up of and the other explaining when and how it can be accessed.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>No, these statements are not at odds with each other. They both are discussing aspects of the same topic of electronic report cards. The first statement explains what the report card is made of (grades), and the second explains when and how a student can access it.</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>No, these statements do not negate each other. They are speaking about different aspects of an electronic report card. The first statement talks about the composition of the report card, while the second statement discusses how a student can access it.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>No, these statements are not inconsistent. They can both be true at the same time. Statement 1 discusses what an electronic report card is made up of (grades), while Statement 2 talks about when and how a student can access it. The two statements do not contradict each other.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>No, these statements do not oppose each other.</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>No, these statements are not in disagreement. The first statement is describing what an electronic report card is composed of, while the second statement is explaining when and how a student can view it. They are providing different pieces of information about electronic report cards, but they are not contradicting each other.</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>No, these statements are not incompatible. The first statement details what makes up an electronic report card (grades), and the second describes a scenario in which a student can view this electronic report card. They can both be true at the same time and do not contradict each other.</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>No, these statements do not present conflicting viewpoints. Both discuss the concept of an electronic report card, but they do not express opposite or conflicting ideas.</t>
-        </is>
+    <row r="2" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>At the beginning of each semester, students may request a course catalog containing a list of course offerings.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Each course catalog is made up of courses</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>No, these statements do not contradict each other. Both are describing the contents of a course catalog.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>No, these statements are not mutually exclusive. They can both exist at the same time without contradicting each other; a course catalog can indeed be made up of courses, and students can request a course catalog at the beginning of each semester.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>No, these statements do not clash or conflict with each other. Both are describing the content and function of a course catalog.</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>No, these two statements are not at odds with each other. They are both discussing a course catalog and its contents. Statement 1 explains what a course catalog is made up of and Statement 2 explains how it can be used or obtained.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>No, these statements do not negate each other. They both discuss the nature of a course catalog but do not contradict or negate each other. They have compatible messages: the first statement describes what a course catalog is, and the second explains how students can request one.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>No, these statements are not inconsistent. Both are discussing the same thing - a course catalog, which is composed of various courses. The second statement just adds that students can request this catalog at the beginning of a semester.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>No, these statements do not oppose each other. They complement each other by providing more information about what a course catalog is and when it can be requested.</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>No, these statements are not in disagreement. Both refer to the course catalog as a source of information about courses.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>No, these statements are not incompatible. They work together to explain the contents and function of a course catalog.</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>No, these statements do not present conflicting viewpoints. Both statements agree that a course catalog contains courses.</t>
-        </is>
+    <row r="3" spans="1:12" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
